--- a/biology/Médecine/Région_cervicale_antérieure/Région_cervicale_antérieure.xlsx
+++ b/biology/Médecine/Région_cervicale_antérieure/Région_cervicale_antérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_cervicale_ant%C3%A9rieure</t>
+          <t>Région_cervicale_antérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La région cervicale antérieure est une région impaire du cou.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_cervicale_ant%C3%A9rieure</t>
+          <t>Région_cervicale_antérieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La région cervicale antérieure a une forme triangulaire avec un sommet inférieur et une base supérieure[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La région cervicale antérieure a une forme triangulaire avec un sommet inférieur et une base supérieure.
 Le sommet correspond à la fourchette sternale et la base au bord inférieur de la mandibule.
 Les deux côtés latéraux correspondent au bords antérieurs des muscles sterno-cléido-mastoïdiens.
 Cet espace est subdivisé en quatre triangles plus petits par le muscle digastrique au-dessus, et le ventre supérieur de du muscle omo-hyoïdien :
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_cervicale_ant%C3%A9rieure</t>
+          <t>Région_cervicale_antérieure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La partie antérieure de la région cervicale antérieure est issue du 1er arc branchial et la postérieure du  2e arc branchial.
 </t>
